--- a/formats/excel/Formats RUM 15.xlsx
+++ b/formats/excel/Formats RUM 15.xlsx
@@ -1,293 +1,654 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/R/pmeasyr_versions/pmeasyr_0.2/formats/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="17540" tabRatio="500"/>
+    <workbookView windowWidth="24240" windowHeight="12855" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>longueur</t>
+  </si>
+  <si>
+    <t>verif</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>libelle</t>
+  </si>
   <si>
     <t>NOCLAS</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Groupage : version de la classification</t>
+  </si>
+  <si>
     <t>CDGHM</t>
   </si>
   <si>
+    <t>Groupage : n° de GHM</t>
+  </si>
+  <si>
+    <t>Fil1</t>
+  </si>
+  <si>
     <t>NOVERG</t>
   </si>
   <si>
+    <t>N° de version du format de RSS</t>
+  </si>
+  <si>
     <t>CDERG</t>
   </si>
   <si>
+    <t>Groupage : code retour</t>
+  </si>
+  <si>
     <t>NOFINESS</t>
   </si>
   <si>
+    <t>Numéro FINESS</t>
+  </si>
+  <si>
     <t>NOVERR</t>
   </si>
   <si>
+    <t>Version du format du RUM</t>
+  </si>
+  <si>
     <t>NORSS</t>
   </si>
   <si>
+    <t>N°de RSS</t>
+  </si>
+  <si>
     <t>NAS</t>
   </si>
   <si>
+    <t>N° Administratif local de séjour</t>
+  </si>
+  <si>
     <t>NORUM</t>
   </si>
   <si>
+    <t>N° de RUM</t>
+  </si>
+  <si>
+    <t>DTNAIS</t>
+  </si>
+  <si>
+    <t>Date de naissance</t>
+  </si>
+  <si>
     <t>SXPMSI</t>
   </si>
   <si>
+    <t>Sexe</t>
+  </si>
+  <si>
     <t>CDURM</t>
   </si>
   <si>
+    <t>Numéro de l'unite médicale</t>
+  </si>
+  <si>
     <t>KYTYPAUTLIT</t>
   </si>
   <si>
+    <t>Type d'autorisation du lit dedié</t>
+  </si>
+  <si>
+    <t>D8EEUE</t>
+  </si>
+  <si>
+    <t>Date d'entrée dans l'UM</t>
+  </si>
+  <si>
     <t>MDEEUE</t>
   </si>
   <si>
+    <t>Mode d'entrée dans l'UM</t>
+  </si>
+  <si>
     <t>TYTRPR</t>
   </si>
   <si>
+    <t>Provenance (si mut., transf., domic.)</t>
+  </si>
+  <si>
+    <t>D8SOUE</t>
+  </si>
+  <si>
+    <t>Date de sortie dans l'UM</t>
+  </si>
+  <si>
     <t>MDSOUE</t>
   </si>
   <si>
+    <t>Mode de sortie dans l'UM</t>
+  </si>
+  <si>
     <t>TYTRDS</t>
   </si>
   <si>
+    <t>Destination (si mut., transf., domic.)</t>
+  </si>
+  <si>
     <t>CDRESI</t>
   </si>
   <si>
+    <t>Code de résidence</t>
+  </si>
+  <si>
     <t>PDNAIS</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Poids du nouveau-né à l'entrée dans l'UM (en grammes)</t>
+  </si>
+  <si>
     <t>AGEGEST</t>
   </si>
   <si>
+    <t>Âge gestationnel</t>
+  </si>
+  <si>
     <t>DDR2</t>
   </si>
   <si>
+    <t>Date des dernières rêgles</t>
+  </si>
+  <si>
     <t>NBSEAN</t>
   </si>
   <si>
+    <t>Nombre de séances</t>
+  </si>
+  <si>
     <t>NBDAS</t>
   </si>
   <si>
+    <t>Nombre de diagnostics associés</t>
+  </si>
+  <si>
     <t>NBDAD</t>
   </si>
   <si>
+    <t>Nombre de diagnostics à visée documentaire</t>
+  </si>
+  <si>
     <t>NBACTE</t>
   </si>
   <si>
+    <t>Nombre d'actes</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Diagnostic principal</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Diagnostic relié</t>
+  </si>
+  <si>
     <t>IGS</t>
   </si>
   <si>
+    <t>Indice de gravité simplifié</t>
+  </si>
+  <si>
     <t>CONFCDRSS</t>
   </si>
   <si>
+    <t>Confirmation de codage du RSS</t>
+  </si>
+  <si>
     <t>RDT_TYPMACH</t>
   </si>
   <si>
+    <t>Type de machine en radiothérapie</t>
+  </si>
+  <si>
     <t>RDT_TYPDOSIM</t>
   </si>
   <si>
+    <t>Type de dosimétrie</t>
+  </si>
+  <si>
     <t>NUMINNO</t>
   </si>
   <si>
-    <t>Fil1</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>longueur</t>
-  </si>
-  <si>
-    <t>verif</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>Numéro d'innovation</t>
+  </si>
+  <si>
+    <t>NBIVGANT</t>
+  </si>
+  <si>
+    <t>Nombre d’IVG antérieures</t>
+  </si>
+  <si>
+    <t>ANIVGPREC</t>
+  </si>
+  <si>
+    <t>Année de l’IVG précédente</t>
+  </si>
+  <si>
+    <t>Fil2</t>
+  </si>
+  <si>
+    <t>NBNAIVIVANT</t>
+  </si>
+  <si>
+    <t>Nombres de naissances vivantes antérieures</t>
+  </si>
+  <si>
+    <t>ZONRES</t>
+  </si>
+  <si>
+    <t>Zone réservée</t>
   </si>
   <si>
     <t>ZAD</t>
-  </si>
-  <si>
-    <t>DTNAIS</t>
-  </si>
-  <si>
-    <t>D8EEUE</t>
-  </si>
-  <si>
-    <t>D8SOUE</t>
-  </si>
-  <si>
-    <t>Fil2</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>DR</t>
-  </si>
-  <si>
-    <t>libelle</t>
-  </si>
-  <si>
-    <t>Groupage : version de la classification</t>
-  </si>
-  <si>
-    <t>Groupage : n° de GHM</t>
-  </si>
-  <si>
-    <t>N° de version du format de RSS</t>
-  </si>
-  <si>
-    <t>Groupage : code retour</t>
-  </si>
-  <si>
-    <t>Numéro FINESS</t>
-  </si>
-  <si>
-    <t>Version du format du RUM</t>
-  </si>
-  <si>
-    <t>N°de RSS</t>
-  </si>
-  <si>
-    <t>N° Administratif local de séjour</t>
-  </si>
-  <si>
-    <t>N° de RUM</t>
-  </si>
-  <si>
-    <t>Date de naissance</t>
-  </si>
-  <si>
-    <t>Sexe</t>
-  </si>
-  <si>
-    <t>Numéro de l'unite médicale</t>
-  </si>
-  <si>
-    <t>Type d'autorisation du lit dedié</t>
-  </si>
-  <si>
-    <t>Date d'entrée dans l'UM</t>
-  </si>
-  <si>
-    <t>Mode d'entrée dans l'UM</t>
-  </si>
-  <si>
-    <t>Provenance (si mut., transf., domic.)</t>
-  </si>
-  <si>
-    <t>Date de sortie dans l'UM</t>
-  </si>
-  <si>
-    <t>Mode de sortie dans l'UM</t>
-  </si>
-  <si>
-    <t>Destination (si mut., transf., domic.)</t>
-  </si>
-  <si>
-    <t>Code de résidence</t>
-  </si>
-  <si>
-    <t>Poids du nouveau-né à l'entrée dans l'UM (en grammes)</t>
-  </si>
-  <si>
-    <t>Âge gestationnel</t>
-  </si>
-  <si>
-    <t>Date des dernières rêgles</t>
-  </si>
-  <si>
-    <t>Nombre de séances</t>
-  </si>
-  <si>
-    <t>Nombre de diagnostics associés</t>
-  </si>
-  <si>
-    <t>Nombre de diagnostics à visée documentaire</t>
-  </si>
-  <si>
-    <t>Nombre d'actes</t>
-  </si>
-  <si>
-    <t>Diagnostic principal</t>
-  </si>
-  <si>
-    <t>Diagnostic relié</t>
-  </si>
-  <si>
-    <t>Indice de gravité simplifié</t>
-  </si>
-  <si>
-    <t>Confirmation de codage du RSS</t>
-  </si>
-  <si>
-    <t>Type de machine en radiothérapie</t>
-  </si>
-  <si>
-    <t>Type de dosimétrie</t>
-  </si>
-  <si>
-    <t>Numéro d'innovation</t>
-  </si>
-  <si>
-    <t>position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -295,23 +656,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -320,7 +966,7 @@
   <a:themeElements>
     <a:clrScheme name="Bureau">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -568,54 +1214,51 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.2" customWidth="1"/>
+    <col min="6" max="6" width="46.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -625,18 +1268,18 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -646,18 +1289,18 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -667,15 +1310,15 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -685,18 +1328,18 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -706,18 +1349,18 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -727,18 +1370,18 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -748,18 +1391,18 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -769,18 +1412,18 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -790,18 +1433,18 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -811,18 +1454,18 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -832,18 +1475,18 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -853,18 +1496,18 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -874,18 +1517,18 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -895,18 +1538,18 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -916,18 +1559,18 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -937,18 +1580,18 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -958,18 +1601,18 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -979,18 +1622,18 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1000,18 +1643,18 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1021,18 +1664,18 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1042,18 +1685,18 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -1063,18 +1706,18 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1084,18 +1727,18 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -1105,18 +1748,18 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -1126,18 +1769,18 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1147,18 +1790,18 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1168,18 +1811,18 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>138</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1189,18 +1832,18 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -1210,18 +1853,18 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -1231,18 +1874,18 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1252,18 +1895,18 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>160</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1273,18 +1916,18 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>161</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1294,18 +1937,18 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>162</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1315,66 +1958,151 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>163</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C36">
         <v>15</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D36:D41" si="1">C36+A36-A37</f>
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>178</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C37">
-        <v>15</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
+        <v>180</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>184</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>190</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
         <v>193</v>
       </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>34</v>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>